--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H2">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N2">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q2">
-        <v>24.48505037015092</v>
+        <v>25.31083023753</v>
       </c>
       <c r="R2">
-        <v>24.48505037015092</v>
+        <v>227.79747213777</v>
       </c>
       <c r="S2">
-        <v>0.01091735317397858</v>
+        <v>0.01000008615426655</v>
       </c>
       <c r="T2">
-        <v>0.01091735317397858</v>
+        <v>0.01000008615426655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H3">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N3">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q3">
-        <v>47.08951172563916</v>
+        <v>48.01116296011001</v>
       </c>
       <c r="R3">
-        <v>47.08951172563916</v>
+        <v>432.1004666409901</v>
       </c>
       <c r="S3">
-        <v>0.02099619247366243</v>
+        <v>0.01896878772691275</v>
       </c>
       <c r="T3">
-        <v>0.02099619247366243</v>
+        <v>0.01896878772691275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H4">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N4">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q4">
-        <v>53.2964840320115</v>
+        <v>54.86470791181501</v>
       </c>
       <c r="R4">
-        <v>53.2964840320115</v>
+        <v>493.7823712063351</v>
       </c>
       <c r="S4">
-        <v>0.02376374687054373</v>
+        <v>0.02167656298896503</v>
       </c>
       <c r="T4">
-        <v>0.02376374687054373</v>
+        <v>0.02167656298896503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H5">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N5">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q5">
-        <v>109.8806057171137</v>
+        <v>133.37477258814</v>
       </c>
       <c r="R5">
-        <v>109.8806057171137</v>
+        <v>1200.37295329326</v>
       </c>
       <c r="S5">
-        <v>0.0489933801013057</v>
+        <v>0.05269519822820581</v>
       </c>
       <c r="T5">
-        <v>0.0489933801013057</v>
+        <v>0.0526951982282058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H6">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N6">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q6">
-        <v>36.2045137685047</v>
+        <v>42.30681087720501</v>
       </c>
       <c r="R6">
-        <v>36.2045137685047</v>
+        <v>380.761297894845</v>
       </c>
       <c r="S6">
-        <v>0.01614280784918392</v>
+        <v>0.01671504844819336</v>
       </c>
       <c r="T6">
-        <v>0.01614280784918392</v>
+        <v>0.01671504844819335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H7">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N7">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q7">
-        <v>39.87972050301476</v>
+        <v>41.443282010232</v>
       </c>
       <c r="R7">
-        <v>39.87972050301476</v>
+        <v>372.989538092088</v>
       </c>
       <c r="S7">
-        <v>0.01778150286109798</v>
+        <v>0.01637387579658978</v>
       </c>
       <c r="T7">
-        <v>0.01778150286109798</v>
+        <v>0.01637387579658977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H8">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N8">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q8">
-        <v>76.69645509617757</v>
+        <v>78.61220463818402</v>
       </c>
       <c r="R8">
-        <v>76.69645509617757</v>
+        <v>707.5098417436561</v>
       </c>
       <c r="S8">
-        <v>0.03419728670429519</v>
+        <v>0.03105898983878565</v>
       </c>
       <c r="T8">
-        <v>0.03419728670429519</v>
+        <v>0.03105898983878565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H9">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N9">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q9">
-        <v>86.8059838496835</v>
+        <v>89.83401733803602</v>
       </c>
       <c r="R9">
-        <v>86.8059838496835</v>
+        <v>808.5061560423242</v>
       </c>
       <c r="S9">
-        <v>0.0387049064214702</v>
+        <v>0.03549262922368295</v>
       </c>
       <c r="T9">
-        <v>0.0387049064214702</v>
+        <v>0.03549262922368294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H10">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N10">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q10">
-        <v>178.9666665355302</v>
+        <v>218.384314601616</v>
       </c>
       <c r="R10">
-        <v>178.9666665355302</v>
+        <v>1965.458831414544</v>
       </c>
       <c r="S10">
-        <v>0.0797973569750101</v>
+        <v>0.08628171973270393</v>
       </c>
       <c r="T10">
-        <v>0.0797973569750101</v>
+        <v>0.0862817197327039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H11">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N11">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O11">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P11">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q11">
-        <v>58.96765039109935</v>
+        <v>69.27204985705201</v>
       </c>
       <c r="R11">
-        <v>58.96765039109935</v>
+        <v>623.4484487134681</v>
       </c>
       <c r="S11">
-        <v>0.02629239701071359</v>
+        <v>0.0273687769287796</v>
       </c>
       <c r="T11">
-        <v>0.02629239701071359</v>
+        <v>0.02736877692877959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H12">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N12">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O12">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P12">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q12">
-        <v>67.91881738731938</v>
+        <v>70.08519396473001</v>
       </c>
       <c r="R12">
-        <v>67.91881738731938</v>
+        <v>630.76674568257</v>
       </c>
       <c r="S12">
-        <v>0.03028352833124077</v>
+        <v>0.02769004300564487</v>
       </c>
       <c r="T12">
-        <v>0.03028352833124077</v>
+        <v>0.02769004300564487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H13">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N13">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O13">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P13">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q13">
-        <v>130.6210891708289</v>
+        <v>132.9419713598434</v>
       </c>
       <c r="R13">
-        <v>130.6210891708289</v>
+        <v>1196.47774223859</v>
       </c>
       <c r="S13">
-        <v>0.05824111206183721</v>
+        <v>0.05252420227390395</v>
       </c>
       <c r="T13">
-        <v>0.05824111206183721</v>
+        <v>0.05252420227390395</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H14">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N14">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O14">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P14">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q14">
-        <v>147.8385427693143</v>
+        <v>151.919303307415</v>
       </c>
       <c r="R14">
-        <v>147.8385427693143</v>
+        <v>1367.273729766735</v>
       </c>
       <c r="S14">
-        <v>0.06591800138204058</v>
+        <v>0.06002197902294319</v>
       </c>
       <c r="T14">
-        <v>0.06591800138204058</v>
+        <v>0.06002197902294319</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H15">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N15">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O15">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P15">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q15">
-        <v>304.7966281991637</v>
+        <v>369.31213710174</v>
       </c>
       <c r="R15">
-        <v>304.7966281991637</v>
+        <v>3323.809233915661</v>
       </c>
       <c r="S15">
-        <v>0.1359022091432846</v>
+        <v>0.1459119734190949</v>
       </c>
       <c r="T15">
-        <v>0.1359022091432846</v>
+        <v>0.1459119734190949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H16">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N16">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O16">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P16">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q16">
-        <v>100.427310626954</v>
+        <v>117.1467319930717</v>
       </c>
       <c r="R16">
-        <v>100.427310626954</v>
+        <v>1054.320587937645</v>
       </c>
       <c r="S16">
-        <v>0.0447783607488062</v>
+        <v>0.04628364228386573</v>
       </c>
       <c r="T16">
-        <v>0.0447783607488062</v>
+        <v>0.04628364228386572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H17">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N17">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O17">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P17">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q17">
-        <v>59.33740783671659</v>
+        <v>61.94611911711601</v>
       </c>
       <c r="R17">
-        <v>59.33740783671659</v>
+        <v>557.515072054044</v>
       </c>
       <c r="S17">
-        <v>0.02645726384012525</v>
+        <v>0.02447436620135421</v>
       </c>
       <c r="T17">
-        <v>0.02645726384012525</v>
+        <v>0.02447436620135421</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H18">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N18">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O18">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P18">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q18">
-        <v>114.1173703895009</v>
+        <v>117.503266063092</v>
       </c>
       <c r="R18">
-        <v>114.1173703895009</v>
+        <v>1057.529394567828</v>
       </c>
       <c r="S18">
-        <v>0.05088246162428572</v>
+        <v>0.04642450575549725</v>
       </c>
       <c r="T18">
-        <v>0.05088246162428572</v>
+        <v>0.04642450575549725</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H19">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N19">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O19">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P19">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q19">
-        <v>129.1594324480463</v>
+        <v>134.276738445018</v>
       </c>
       <c r="R19">
-        <v>129.1594324480463</v>
+        <v>1208.490646005162</v>
       </c>
       <c r="S19">
-        <v>0.05758939101489213</v>
+        <v>0.05305155699606688</v>
       </c>
       <c r="T19">
-        <v>0.05758939101489213</v>
+        <v>0.05305155699606688</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H20">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N20">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O20">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P20">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q20">
-        <v>266.286171203071</v>
+        <v>326.423490356808</v>
       </c>
       <c r="R20">
-        <v>266.286171203071</v>
+        <v>2937.811413211272</v>
       </c>
       <c r="S20">
-        <v>0.1187312311970765</v>
+        <v>0.1289670467428739</v>
       </c>
       <c r="T20">
-        <v>0.1187312311970765</v>
+        <v>0.1289670467428739</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H21">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N21">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O21">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P21">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q21">
-        <v>87.73851662689241</v>
+        <v>103.542346160526</v>
       </c>
       <c r="R21">
-        <v>87.73851662689241</v>
+        <v>931.8811154447342</v>
       </c>
       <c r="S21">
-        <v>0.03912070257141449</v>
+        <v>0.04090866923380682</v>
       </c>
       <c r="T21">
-        <v>0.03912070257141449</v>
+        <v>0.04090866923380681</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H22">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N22">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O22">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P22">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q22">
-        <v>11.04720181552736</v>
+        <v>12.040330601534</v>
       </c>
       <c r="R22">
-        <v>11.04720181552736</v>
+        <v>108.362975413806</v>
       </c>
       <c r="S22">
-        <v>0.004925707808686293</v>
+        <v>0.004757028600455022</v>
       </c>
       <c r="T22">
-        <v>0.004925707808686293</v>
+        <v>0.004757028600455022</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H23">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N23">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O23">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P23">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q23">
-        <v>21.24591665377781</v>
+        <v>22.83885076779134</v>
       </c>
       <c r="R23">
-        <v>21.24591665377781</v>
+        <v>205.549656910122</v>
       </c>
       <c r="S23">
-        <v>0.009473093667676041</v>
+        <v>0.009023428832599132</v>
       </c>
       <c r="T23">
-        <v>0.009473093667676041</v>
+        <v>0.009023428832599132</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H24">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N24">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O24">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P24">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q24">
-        <v>24.04638774512896</v>
+        <v>26.099073614557</v>
       </c>
       <c r="R24">
-        <v>24.04638774512896</v>
+        <v>234.891662531013</v>
       </c>
       <c r="S24">
-        <v>0.01072176301879444</v>
+        <v>0.0103115141717131</v>
       </c>
       <c r="T24">
-        <v>0.01072176301879444</v>
+        <v>0.0103115141717131</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H25">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N25">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O25">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P25">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q25">
-        <v>49.57609678635357</v>
+        <v>63.446214161892</v>
       </c>
       <c r="R25">
-        <v>49.57609678635357</v>
+        <v>571.0159274570281</v>
       </c>
       <c r="S25">
-        <v>0.02210490684813039</v>
+        <v>0.02506704054457292</v>
       </c>
       <c r="T25">
-        <v>0.02210490684813039</v>
+        <v>0.02506704054457291</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H26">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N26">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O26">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P26">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q26">
-        <v>16.33480692044193</v>
+        <v>20.12529754566567</v>
       </c>
       <c r="R26">
-        <v>16.33480692044193</v>
+        <v>181.127677910991</v>
       </c>
       <c r="S26">
-        <v>0.00728333630044784</v>
+        <v>0.007951327848522826</v>
       </c>
       <c r="T26">
-        <v>0.00728333630044784</v>
+        <v>0.007951327848522824</v>
       </c>
     </row>
   </sheetData>
